--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/59fd0f6a42041543/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{BAE2A057-02AE-4129-88E9-BAD00FE5F477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2D4223B-F6F7-4028-8AFA-6E7472901701}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="8_{BAE2A057-02AE-4129-88E9-BAD00FE5F477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42C062FB-AAF5-466A-B962-08208AF207E9}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="5865" windowWidth="28905" windowHeight="15345" xr2:uid="{81F252EB-A4B6-4889-B6AE-78CBA944A1BF}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{81F252EB-A4B6-4889-B6AE-78CBA944A1BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="408">
   <si>
     <t>콤파스박스 오차드하우스</t>
   </si>
@@ -1360,6 +1360,18 @@
   </si>
   <si>
     <t>MALTBARN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/달림플 거반 12.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/아부나흐.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/사신도 주작.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1425,10 +1437,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1750,8 +1758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83D9293-08DA-4F86-B55E-25C6BD7745E6}">
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1789,7 +1797,7 @@
         <v>384</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B32" si="0">"images/"&amp;A2&amp;".jpg"</f>
+        <f t="shared" ref="B2:B65" si="0">"images/"&amp;A2&amp;".jpg"</f>
         <v>images/올드패션드(어멘토).jpg</v>
       </c>
       <c r="C2" t="s">
@@ -2211,9 +2219,8 @@
       <c r="A28" t="s">
         <v>403</v>
       </c>
-      <c r="B28" t="str">
-        <f t="shared" si="0"/>
-        <v>images/달림플 거반 12(위스키내비 오픈커뮤니티#2023 달림플 2011／거반 증류소).jpg</v>
+      <c r="B28" t="s">
+        <v>405</v>
       </c>
       <c r="C28" t="s">
         <v>146</v>
@@ -2232,9 +2239,8 @@
       <c r="A29" t="s">
         <v>18</v>
       </c>
-      <c r="B29" t="str">
-        <f t="shared" si="0"/>
-        <v>images/아부나흐 #70.jpg</v>
+      <c r="B29" t="s">
+        <v>406</v>
       </c>
       <c r="C29" t="s">
         <v>150</v>
@@ -2268,9 +2274,8 @@
       <c r="A31" t="s">
         <v>402</v>
       </c>
-      <c r="B31" t="str">
-        <f t="shared" si="0"/>
-        <v>images/사신도 주작(위스키내비 일러스트레이션#3／스페이사이드 증류소).jpg</v>
+      <c r="B31" t="s">
+        <v>407</v>
       </c>
       <c r="C31" t="s">
         <v>156</v>
@@ -2298,6 +2303,10 @@
       <c r="A33" t="s">
         <v>19</v>
       </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>images/플렌테이션 O.F.T.D.jpg</v>
+      </c>
       <c r="C33" t="s">
         <v>160</v>
       </c>
@@ -2309,6 +2318,10 @@
       <c r="A34" t="s">
         <v>20</v>
       </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>images/우드 포드 리저브 더블오크.jpg</v>
+      </c>
       <c r="C34" t="s">
         <v>162</v>
       </c>
@@ -2323,6 +2336,10 @@
       <c r="A35" t="s">
         <v>21</v>
       </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>images/산시바 21.jpg</v>
+      </c>
       <c r="C35" t="s">
         <v>165</v>
       </c>
@@ -2334,6 +2351,10 @@
       <c r="A36" t="s">
         <v>22</v>
       </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>images/카발란 솔리스트 비노바리끄.jpg</v>
+      </c>
       <c r="C36" t="s">
         <v>167</v>
       </c>
@@ -2348,6 +2369,10 @@
       <c r="A37" t="s">
         <v>23</v>
       </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>images/라이터즈 티얼스 미즈나라 cs.jpg</v>
+      </c>
       <c r="C37" t="s">
         <v>170</v>
       </c>
@@ -2362,6 +2387,10 @@
       <c r="A38" t="s">
         <v>24</v>
       </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>images/글렌모렌지 더 넥타.jpg</v>
+      </c>
       <c r="C38" t="s">
         <v>173</v>
       </c>
@@ -2376,6 +2405,10 @@
       <c r="A39" t="s">
         <v>25</v>
       </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>images/글렌리벳 나두라.jpg</v>
+      </c>
       <c r="C39" t="s">
         <v>176</v>
       </c>
@@ -2387,6 +2420,10 @@
       <c r="A40" t="s">
         <v>26</v>
       </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>images/위스키파크.jpg</v>
+      </c>
       <c r="C40" t="s">
         <v>178</v>
       </c>
@@ -2404,6 +2441,10 @@
       <c r="A41" t="s">
         <v>27</v>
       </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>images/글렌그란트 15.jpg</v>
+      </c>
       <c r="C41" t="s">
         <v>182</v>
       </c>
@@ -2421,6 +2462,10 @@
       <c r="A42" t="s">
         <v>28</v>
       </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>images/메이커스 마크 CS(16-02)(55.75도).jpg</v>
+      </c>
       <c r="C42" t="s">
         <v>186</v>
       </c>
@@ -2438,6 +2483,10 @@
       <c r="A43" t="s">
         <v>29</v>
       </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>images/부커스 (22-01).jpg</v>
+      </c>
       <c r="C43" t="s">
         <v>190</v>
       </c>
@@ -2452,6 +2501,10 @@
       <c r="A44" t="s">
         <v>30</v>
       </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>images/코마가타케 2021.jpg</v>
+      </c>
       <c r="C44" t="s">
         <v>193</v>
       </c>
@@ -2466,6 +2519,10 @@
       <c r="A45" t="s">
         <v>31</v>
       </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>images/러셀 싱글배럴.jpg</v>
+      </c>
       <c r="C45" t="s">
         <v>196</v>
       </c>
@@ -2477,6 +2534,10 @@
       <c r="A46" t="s">
         <v>32</v>
       </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>images/에반윌리엄스 12.jpg</v>
+      </c>
       <c r="C46" t="s">
         <v>198</v>
       </c>
@@ -2488,6 +2549,10 @@
       <c r="A47" t="s">
         <v>31</v>
       </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>images/러셀 싱글배럴.jpg</v>
+      </c>
       <c r="C47" t="s">
         <v>200</v>
       </c>
@@ -2502,6 +2567,10 @@
       <c r="A48" t="s">
         <v>33</v>
       </c>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>images/러셀 싱글배럴 라이.jpg</v>
+      </c>
       <c r="C48" t="s">
         <v>203</v>
       </c>
@@ -2516,6 +2585,10 @@
       <c r="A49" t="s">
         <v>34</v>
       </c>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>images/러셀 리저브 6년 라이.jpg</v>
+      </c>
       <c r="C49" t="s">
         <v>206</v>
       </c>
@@ -2530,6 +2603,10 @@
       <c r="A50" t="s">
         <v>35</v>
       </c>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>images/러셀 리저브 10년.jpg</v>
+      </c>
       <c r="C50" t="s">
         <v>209</v>
       </c>
@@ -2544,6 +2621,10 @@
       <c r="A51" t="s">
         <v>36</v>
       </c>
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>images/러셀 리저브 15년.jpg</v>
+      </c>
       <c r="C51" t="s">
         <v>212</v>
       </c>
@@ -2561,6 +2642,10 @@
       <c r="A52" t="s">
         <v>37</v>
       </c>
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>images/닛카 프론티어.jpg</v>
+      </c>
       <c r="C52" t="s">
         <v>216</v>
       </c>
@@ -2578,6 +2663,10 @@
       <c r="A53" t="s">
         <v>38</v>
       </c>
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>images/시바스리갈.jpg</v>
+      </c>
       <c r="C53" t="s">
         <v>220</v>
       </c>
@@ -2595,6 +2684,10 @@
       <c r="A54" t="s">
         <v>39</v>
       </c>
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>images/글렌카담 21년 숙성 (56.6도).jpg</v>
+      </c>
       <c r="C54" t="s">
         <v>224</v>
       </c>
@@ -2609,6 +2702,10 @@
       <c r="A55" t="s">
         <v>40</v>
       </c>
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>images/에버펠디 27년 (44.3도).jpg</v>
+      </c>
       <c r="C55" t="s">
         <v>227</v>
       </c>
@@ -2623,6 +2720,10 @@
       <c r="A56" t="s">
         <v>41</v>
       </c>
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>images/탐듀 싱글캐스크 16년 숙성(06~22)(58.6도).jpg</v>
+      </c>
       <c r="C56" t="s">
         <v>230</v>
       </c>
@@ -2637,6 +2738,10 @@
       <c r="A57" t="s">
         <v>42</v>
       </c>
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>images/토모어 20 (55.7도).jpg</v>
+      </c>
       <c r="C57" t="s">
         <v>233</v>
       </c>
@@ -2651,6 +2756,10 @@
       <c r="A58" t="s">
         <v>43</v>
       </c>
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>images/글렌파클라스 105 13년 30주년(60도).jpg</v>
+      </c>
       <c r="C58" t="s">
         <v>236</v>
       </c>
@@ -2665,6 +2774,10 @@
       <c r="A59" t="s">
         <v>44</v>
       </c>
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>images/스프링뱅크 싱글캐스크 19 싱글몰트(94~14).jpg</v>
+      </c>
       <c r="C59" t="s">
         <v>239</v>
       </c>
@@ -2679,6 +2792,10 @@
       <c r="A60" t="s">
         <v>45</v>
       </c>
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>images/에버텔디 핸드필드 (2001) (50.2도).jpg</v>
+      </c>
       <c r="C60" t="s">
         <v>242</v>
       </c>
@@ -2693,6 +2810,10 @@
       <c r="A61" t="s">
         <v>46</v>
       </c>
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>images/스프링뱅크 15.jpg</v>
+      </c>
       <c r="C61" t="s">
         <v>245</v>
       </c>
@@ -2707,6 +2828,10 @@
       <c r="A62" t="s">
         <v>47</v>
       </c>
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>images/롯코산 ns 미즈나라.jpg</v>
+      </c>
       <c r="C62" t="s">
         <v>248</v>
       </c>
@@ -2721,6 +2846,10 @@
       <c r="A63" t="s">
         <v>48</v>
       </c>
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>images/닛카 미야기쿄 ns.jpg</v>
+      </c>
       <c r="C63" t="s">
         <v>251</v>
       </c>
@@ -2735,6 +2864,10 @@
       <c r="A64" t="s">
         <v>49</v>
       </c>
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>images/닛카 요이치 ns.jpg</v>
+      </c>
       <c r="C64" t="s">
         <v>254</v>
       </c>
@@ -2749,6 +2882,10 @@
       <c r="A65" t="s">
         <v>50</v>
       </c>
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>images/롯코산 12.jpg</v>
+      </c>
       <c r="C65" t="s">
         <v>256</v>
       </c>
@@ -2763,6 +2900,10 @@
       <c r="A66" t="s">
         <v>51</v>
       </c>
+      <c r="B66" t="str">
+        <f t="shared" ref="B66:B104" si="1">"images/"&amp;A66&amp;".jpg"</f>
+        <v>images/롯코산 쉐리 3년 시부야 핸즈필.jpg</v>
+      </c>
       <c r="C66" t="s">
         <v>259</v>
       </c>
@@ -2780,6 +2921,10 @@
       <c r="A67" t="s">
         <v>52</v>
       </c>
+      <c r="B67" t="str">
+        <f t="shared" si="1"/>
+        <v>images/롯코산 쉐리 피티드 3년 시부야 핸즈필.jpg</v>
+      </c>
       <c r="C67" t="s">
         <v>263</v>
       </c>
@@ -2794,6 +2939,10 @@
       <c r="A68" t="s">
         <v>53</v>
       </c>
+      <c r="B68" t="str">
+        <f t="shared" si="1"/>
+        <v>images/닛카 섹션.jpg</v>
+      </c>
       <c r="C68" t="s">
         <v>266</v>
       </c>
@@ -2808,6 +2957,10 @@
       <c r="A69" t="s">
         <v>54</v>
       </c>
+      <c r="B69" t="str">
+        <f t="shared" si="1"/>
+        <v>images/포 로즈스 싱글배럴.jpg</v>
+      </c>
       <c r="C69" t="s">
         <v>269</v>
       </c>
@@ -2822,6 +2975,10 @@
       <c r="A70" t="s">
         <v>55</v>
       </c>
+      <c r="B70" t="str">
+        <f t="shared" si="1"/>
+        <v>images/글렌 리벳 18.jpg</v>
+      </c>
       <c r="C70" t="s">
         <v>272</v>
       </c>
@@ -2836,6 +2993,10 @@
       <c r="A71" t="s">
         <v>56</v>
       </c>
+      <c r="B71" t="str">
+        <f t="shared" si="1"/>
+        <v>images/메이커스마크 프라이빗 (54.65도).jpg</v>
+      </c>
       <c r="C71" t="s">
         <v>275</v>
       </c>
@@ -2850,6 +3011,10 @@
       <c r="A72" t="s">
         <v>57</v>
       </c>
+      <c r="B72" t="str">
+        <f t="shared" si="1"/>
+        <v>images/카발란 솔리스트 ex 버번 캐스크.jpg</v>
+      </c>
       <c r="C72" t="s">
         <v>278</v>
       </c>
@@ -2864,6 +3029,10 @@
       <c r="A73" t="s">
         <v>58</v>
       </c>
+      <c r="B73" t="str">
+        <f t="shared" si="1"/>
+        <v>images/하이랜드파크 12.jpg</v>
+      </c>
       <c r="C73" t="s">
         <v>281</v>
       </c>
@@ -2878,6 +3047,10 @@
       <c r="A74" t="s">
         <v>59</v>
       </c>
+      <c r="B74" t="str">
+        <f t="shared" si="1"/>
+        <v>images/하이랜드파크 18.jpg</v>
+      </c>
       <c r="C74" t="s">
         <v>284</v>
       </c>
@@ -2892,6 +3065,10 @@
       <c r="A75" t="s">
         <v>60</v>
       </c>
+      <c r="B75" t="str">
+        <f t="shared" si="1"/>
+        <v>images/야마자키 스모키배치 2.jpg</v>
+      </c>
       <c r="C75" t="s">
         <v>287</v>
       </c>
@@ -2906,6 +3083,10 @@
       <c r="A76" t="s">
         <v>61</v>
       </c>
+      <c r="B76" t="str">
+        <f t="shared" si="1"/>
+        <v>images/조니워커 그린 (43도).jpg</v>
+      </c>
       <c r="C76" t="s">
         <v>290</v>
       </c>
@@ -2920,6 +3101,10 @@
       <c r="A77" t="s">
         <v>62</v>
       </c>
+      <c r="B77" t="str">
+        <f t="shared" si="1"/>
+        <v>images/탈리스커 10년.jpg</v>
+      </c>
       <c r="C77" t="s">
         <v>293</v>
       </c>
@@ -2934,6 +3119,10 @@
       <c r="A78" t="s">
         <v>63</v>
       </c>
+      <c r="B78" t="str">
+        <f t="shared" si="1"/>
+        <v>images/틸링 블랙핏츠.jpg</v>
+      </c>
       <c r="C78" t="s">
         <v>296</v>
       </c>
@@ -2948,6 +3137,10 @@
       <c r="A79" t="s">
         <v>64</v>
       </c>
+      <c r="B79" t="str">
+        <f t="shared" si="1"/>
+        <v>images/우드 포드 리저브.jpg</v>
+      </c>
       <c r="C79" t="s">
         <v>299</v>
       </c>
@@ -2962,6 +3155,10 @@
       <c r="A80" t="s">
         <v>65</v>
       </c>
+      <c r="B80" t="str">
+        <f t="shared" si="1"/>
+        <v>images/맥켈란 12 더블 오크.jpg</v>
+      </c>
       <c r="C80" t="s">
         <v>302</v>
       </c>
@@ -2976,6 +3173,10 @@
       <c r="A81" t="s">
         <v>66</v>
       </c>
+      <c r="B81" t="str">
+        <f t="shared" si="1"/>
+        <v>images/바나나화이트.jpg</v>
+      </c>
       <c r="D81" t="s">
         <v>304</v>
       </c>
@@ -2984,6 +3185,10 @@
       <c r="A82" t="s">
         <v>67</v>
       </c>
+      <c r="B82" t="str">
+        <f t="shared" si="1"/>
+        <v>images/몽유병.jpg</v>
+      </c>
       <c r="C82" t="s">
         <v>305</v>
       </c>
@@ -2995,6 +3200,10 @@
       <c r="A83" t="s">
         <v>68</v>
       </c>
+      <c r="B83" t="str">
+        <f t="shared" si="1"/>
+        <v>images/파도.jpg</v>
+      </c>
       <c r="C83" t="s">
         <v>307</v>
       </c>
@@ -3006,6 +3215,10 @@
       <c r="A84" t="s">
         <v>69</v>
       </c>
+      <c r="B84" t="str">
+        <f t="shared" si="1"/>
+        <v>images/턱시도-낫띵배럴.jpg</v>
+      </c>
       <c r="C84" t="s">
         <v>309</v>
       </c>
@@ -3020,6 +3233,10 @@
       <c r="A85" t="s">
         <v>389</v>
       </c>
+      <c r="B85" t="str">
+        <f t="shared" si="1"/>
+        <v>images/기원 바 에디션(위스피)(56.7도).jpg</v>
+      </c>
       <c r="C85" t="s">
         <v>312</v>
       </c>
@@ -3034,6 +3251,10 @@
       <c r="A86" t="s">
         <v>390</v>
       </c>
+      <c r="B86" t="str">
+        <f t="shared" si="1"/>
+        <v>images/호텔리어(위스피).jpg</v>
+      </c>
       <c r="C86" t="s">
         <v>315</v>
       </c>
@@ -3048,6 +3269,10 @@
       <c r="A87" t="s">
         <v>391</v>
       </c>
+      <c r="B87" t="str">
+        <f t="shared" si="1"/>
+        <v>images/올드패션드(위스피).jpg</v>
+      </c>
       <c r="C87" t="s">
         <v>318</v>
       </c>
@@ -3062,6 +3287,10 @@
       <c r="A88" t="s">
         <v>392</v>
       </c>
+      <c r="B88" t="str">
+        <f t="shared" si="1"/>
+        <v>images/깔루아밀크(위스피).jpg</v>
+      </c>
       <c r="C88" t="s">
         <v>321</v>
       </c>
@@ -3076,6 +3305,10 @@
       <c r="A89" t="s">
         <v>393</v>
       </c>
+      <c r="B89" t="str">
+        <f t="shared" si="1"/>
+        <v>images/피나콜라다(위스피).jpg</v>
+      </c>
       <c r="C89" t="s">
         <v>324</v>
       </c>
@@ -3090,6 +3323,10 @@
       <c r="A90" t="s">
         <v>394</v>
       </c>
+      <c r="B90" t="str">
+        <f t="shared" si="1"/>
+        <v>images/파우스트(위스피).jpg</v>
+      </c>
       <c r="C90" t="s">
         <v>327</v>
       </c>
@@ -3104,6 +3341,10 @@
       <c r="A91" t="s">
         <v>70</v>
       </c>
+      <c r="B91" t="str">
+        <f t="shared" si="1"/>
+        <v>images/블랑톤 골드(51.5도).jpg</v>
+      </c>
       <c r="C91" t="s">
         <v>330</v>
       </c>
@@ -3121,6 +3362,10 @@
       <c r="A92" t="s">
         <v>71</v>
       </c>
+      <c r="B92" t="str">
+        <f t="shared" si="1"/>
+        <v>images/베이커스(53.5도)(14-02).jpg</v>
+      </c>
       <c r="C92" t="s">
         <v>334</v>
       </c>
@@ -3138,6 +3383,10 @@
       <c r="A93" t="s">
         <v>72</v>
       </c>
+      <c r="B93" t="str">
+        <f t="shared" si="1"/>
+        <v>images/김창수 위스키 김포.jpg</v>
+      </c>
       <c r="C93" t="s">
         <v>338</v>
       </c>
@@ -3152,6 +3401,10 @@
       <c r="A94" t="s">
         <v>73</v>
       </c>
+      <c r="B94" t="str">
+        <f t="shared" si="1"/>
+        <v>images/블랑톤 스트레이트 프롬 더 배럴(64.9도).jpg</v>
+      </c>
       <c r="C94" t="s">
         <v>341</v>
       </c>
@@ -3169,6 +3422,10 @@
       <c r="A95" t="s">
         <v>395</v>
       </c>
+      <c r="B95" t="str">
+        <f t="shared" si="1"/>
+        <v>images/레이타.jpg</v>
+      </c>
       <c r="C95" t="s">
         <v>345</v>
       </c>
@@ -3186,6 +3443,10 @@
       <c r="A96" t="s">
         <v>74</v>
       </c>
+      <c r="B96" t="str">
+        <f t="shared" si="1"/>
+        <v>images/글렌로시스 WMC(48.8도).jpg</v>
+      </c>
       <c r="C96" t="s">
         <v>349</v>
       </c>
@@ -3203,6 +3464,10 @@
       <c r="A97" t="s">
         <v>75</v>
       </c>
+      <c r="B97" t="str">
+        <f t="shared" si="1"/>
+        <v>images/싱글톤 17 cs(55.1도)(2020).jpg</v>
+      </c>
       <c r="C97" t="s">
         <v>353</v>
       </c>
@@ -3220,6 +3485,10 @@
       <c r="A98" t="s">
         <v>76</v>
       </c>
+      <c r="B98" t="str">
+        <f t="shared" si="1"/>
+        <v>images/싱글톤 19 cs(54.6도)(2021).jpg</v>
+      </c>
       <c r="C98" t="s">
         <v>357</v>
       </c>
@@ -3237,6 +3506,10 @@
       <c r="A99" t="s">
         <v>396</v>
       </c>
+      <c r="B99" t="str">
+        <f t="shared" si="1"/>
+        <v>images/에스프레소 마티니(ici).jpg</v>
+      </c>
       <c r="C99" t="s">
         <v>361</v>
       </c>
@@ -3254,6 +3527,10 @@
       <c r="A100" t="s">
         <v>77</v>
       </c>
+      <c r="B100" t="str">
+        <f t="shared" si="1"/>
+        <v>images/글렌알라키 15.jpg</v>
+      </c>
       <c r="C100" t="s">
         <v>365</v>
       </c>
@@ -3268,6 +3545,10 @@
       <c r="A101" t="s">
         <v>78</v>
       </c>
+      <c r="B101" t="str">
+        <f t="shared" si="1"/>
+        <v>images/글렌알라키 10cs#11.jpg</v>
+      </c>
       <c r="C101" t="s">
         <v>368</v>
       </c>
@@ -3282,6 +3563,10 @@
       <c r="A102" t="s">
         <v>397</v>
       </c>
+      <c r="B102" t="str">
+        <f t="shared" si="1"/>
+        <v>images/올드패션드(자작).jpg</v>
+      </c>
       <c r="C102" t="s">
         <v>371</v>
       </c>
@@ -3299,6 +3584,10 @@
       <c r="A103" t="s">
         <v>79</v>
       </c>
+      <c r="B103" t="str">
+        <f t="shared" si="1"/>
+        <v>images/발베니 12 싱글배럴.jpg</v>
+      </c>
       <c r="C103" t="s">
         <v>375</v>
       </c>
@@ -3312,6 +3601,10 @@
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>80</v>
+      </c>
+      <c r="B104" t="str">
+        <f t="shared" si="1"/>
+        <v>images/발베니 12 더블우드.jpg</v>
       </c>
       <c r="C104" t="s">
         <v>378</v>
